--- a/5-FuncoesMercadoTrabalho/23. Função MÁXIMOSES - Material(1).xlsx
+++ b/5-FuncoesMercadoTrabalho/23. Função MÁXIMOSES - Material(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\5-FuncoesMercadoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904151F4-DF71-4B02-9B0D-FE29D3D4B014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AFED63-634D-466F-AE99-3161BA0FCBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
   <sheets>
     <sheet name="MÁXIMOSES_MÍNIMOSES" sheetId="8" r:id="rId1"/>
@@ -40,6 +40,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -3211,8 +3214,8 @@
   </sheetPr>
   <dimension ref="A1:M811"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35906,8 +35909,8 @@
   </sheetPr>
   <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
